--- a/EvimiKurDbStructure.xlsx
+++ b/EvimiKurDbStructure.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abdullah\source\repos\CourseProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abdullah\Desktop\CourseProject-Trying-to-fix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A84A556-3652-4013-B884-1BBF29BD8B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA81E5C-3C3B-41F0-8A72-300368AD9D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2F54DCCF-89E2-40CB-B479-D60CD376924A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2F54DCCF-89E2-40CB-B479-D60CD376924A}"/>
   </bookViews>
   <sheets>
     <sheet name="Db" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="49">
   <si>
     <t>Id</t>
   </si>
@@ -175,6 +175,12 @@
   </si>
   <si>
     <t>CustomerName</t>
+  </si>
+  <si>
+    <t>SupplierContractDetails</t>
+  </si>
+  <si>
+    <t>ContractId</t>
   </si>
 </sst>
 </file>
@@ -228,13 +234,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,13 +262,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -584,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2377F494-9476-4B2E-88E6-18777E286BF1}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,31 +600,33 @@
     <col min="3" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="G1" s="5" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="G1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="J1" s="5" t="s">
+      <c r="H1" s="2"/>
+      <c r="J1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="N1" s="5" t="s">
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="N1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -697,18 +705,18 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="G6" s="3" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="G6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -751,16 +759,23 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="J11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -770,18 +785,21 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" t="s">
         <v>4</v>
       </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="K12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L12" t="s">
         <v>34</v>
       </c>
-      <c r="G12" t="s">
+      <c r="M12" t="s">
         <v>35</v>
       </c>
     </row>
@@ -793,35 +811,38 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
       </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="J13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
+      <c r="M13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="H15" s="5" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="H15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -876,18 +897,18 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -954,18 +975,18 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="F25" s="5" t="s">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="F25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -1020,20 +1041,22 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="A11:F11"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="H15:J15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>